--- a/static analysis/정적분석포맷.xlsx
+++ b/static analysis/정적분석포맷.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\static analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67CBD3-23DC-4F74-BE82-3E5C130AD9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3862F8-7D2B-4B9A-B0BB-9080FCA813CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6AB2B5B-B36D-48D8-B551-DDFE101EE59E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F6AB2B5B-B36D-48D8-B551-DDFE101EE59E}"/>
   </bookViews>
   <sheets>
     <sheet name="포맷" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,12 +90,250 @@
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>EI_EXPOSE_REP</t>
+  </si>
+  <si>
+    <t>mutable 객체를 그대로 반환했습니다. 클라이언트가 설계 의도에 반하여 객체 내용을 수정해버릴 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카피 객체를 반환하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF_SWITCH_NO_DEFAULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch문에 defaut 케이스가 빠졌습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaut 케이스를 추가하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힌트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOO와 BAR를 붙여쓰세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반적인 해결법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQA 주관으로 조언을 줍니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 타입을 기입해줍니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러의 설명을 간단히 기입해줍니다. 젠킨스 보고서에 영어로 잘 설명되어 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러를 일으킨 코드 위치를 밝혀 줍니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1씩 증가시켜줍시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러를 발견한 도구를 기입합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMI_WRONG_MAP_ITERATOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrySet의 이터레이터를 쓰세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵을 트래버스 하기 위해 keySet의 이터레이터를 사용했습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractClassWithoutAbstractMethod</t>
+  </si>
+  <si>
+    <t>추상 클래스인데 추상 메서드가 없습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstract 식별자를 제거하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvoidDeeplyNestedIfStmts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if문 중첩이 너무 많습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈화하여 if문을 감추세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvoidDuplicateLiterals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상수 리터럴이 반복적으로 나타나고 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum이나 static final로 선언하여 사용하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvoidLiteralsInIfCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if 조건문에 상수 리터럴을 사용했습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type DefaultPackage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버변수에 스코핑 식별자가 없습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private을 명시적으로 붙이세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalFieldCouldBeStatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final 멤버는 static으로 고려하십시오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static 변수로 선언하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImmutableField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버 변수가 임의로 변경될 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final 식별자를 붙이거나, 방어기법을 사용하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogicInversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건에 ! 연산자를 붙였습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반대되는 조건 연산자를 사용하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LooseCoupling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의존타입을 인터페이스로 바꾸세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터페이스가 아닌 하위 클래스에 직접 의존하고 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MethodReturnsInternalArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메서드가 내부 배열을 노출합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어기법을 적용하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonStaticInitializer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-static initializer는 혼동을 줍니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괄호를 지우세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionLiteralsFirstInComparisons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 비교할 때는 상수 문자열을 앞쪽에 배치하세요 (코드 컨벤션)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 상수의 eqauls()를 호출하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedundantFieldInitializer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버변수 초기화를 선언과 함께 하고있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static 및 final이 아니면 초기화작업은 생성자에서 하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseEqualsToCompareStrings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 비교에 ==를 쓰지 마십시오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equals()를 호출하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +365,38 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,13 +442,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -192,6 +465,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,122 +796,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAD4EAE-D0A2-4737-86C9-827DE0E5F83D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E12"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -633,15 +951,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BD5E91-7E88-497E-A1E8-95A2AC454B97}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="97" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static analysis/정적분석포맷.xlsx
+++ b/static analysis/정적분석포맷.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\static analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3862F8-7D2B-4B9A-B0BB-9080FCA813CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E87685-292F-4FF1-BF94-17C7DDB52079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F6AB2B5B-B36D-48D8-B551-DDFE101EE59E}"/>
   </bookViews>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에러의 설명을 간단히 기입해줍니다. 젠킨스 보고서에 영어로 잘 설명되어 있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에러를 일으킨 코드 위치를 밝혀 줍니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +322,10 @@
   </si>
   <si>
     <t>equals()를 호출하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러의 설명을 간단히 기입해줍니다. '중요한 에러' 탭의 에러 설명을 그대로 사용.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,6 +452,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,21 +480,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,7 +799,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -808,40 +808,40 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>20</v>
       </c>
@@ -850,87 +850,87 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -954,7 +954,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,222 +965,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/static analysis/정적분석포맷.xlsx
+++ b/static analysis/정적분석포맷.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\static analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E87685-292F-4FF1-BF94-17C7DDB52079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61F1E2-9AA7-4F6F-A1A6-5F245D421363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F6AB2B5B-B36D-48D8-B551-DDFE101EE59E}"/>
   </bookViews>
   <sheets>
-    <sheet name="포맷" sheetId="1" r:id="rId1"/>
-    <sheet name="중요한 에러" sheetId="4" r:id="rId2"/>
+    <sheet name="중요한 에러" sheetId="4" r:id="rId1"/>
+    <sheet name="포맷" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -442,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +481,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,11 +798,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BD5E91-7E88-497E-A1E8-95A2AC454B97}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="97" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAD4EAE-D0A2-4737-86C9-827DE0E5F83D}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -931,6 +1175,258 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -947,245 +1443,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BD5E91-7E88-497E-A1E8-95A2AC454B97}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.625" customWidth="1"/>
-    <col min="2" max="2" width="97" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>